--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuiz\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5176B0C1-D5FB-4ACC-9F9A-ED75E65FDD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F324B85E-87B3-4933-8217-C2C02B849B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="999" firstSheet="1" activeTab="11" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" firstSheet="1" activeTab="4" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="风险管理计划" sheetId="9" r:id="rId8"/>
     <sheet name="风险登记册" sheetId="4" r:id="rId9"/>
     <sheet name="变更日志" sheetId="5" r:id="rId10"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId11"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId12"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId11"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId12"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="286">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1613,6 +1614,84 @@
   </si>
   <si>
     <t>经验教训登记册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目绩效报告</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起人：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前报告阶段的工作完成情况：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.
+2.
+3.
+4. 
+5.
+6.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前报告阶段计划的但没有完成的工作情况：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 
+2. 
+3. 
+4.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏差的根本原因：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对即将完成的里程碑或项目到期日的影响：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划的纠正或预防措施：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前报告阶段已花费的资金：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对整个预算或应急资金的影响：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一报告阶段计划的工作：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.
+2.
+3.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一报告阶段计划的成本：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>识别的新风险：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1889,9 +1968,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1907,32 +1983,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1940,14 +1995,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1959,31 +2023,55 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1994,8 +2082,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2034,34 +2131,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2403,205 +2482,205 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.06640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="9" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="9" t="s">
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2621,64 +2700,64 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2687,7 +2766,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2696,7 +2775,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2705,7 +2784,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2714,7 +2793,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2723,7 +2802,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2732,7 +2811,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2753,255 +2832,813 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="57" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="58" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="34"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="34"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="34"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="34"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="34"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A53:F55"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A26:F27"/>
+    <mergeCell ref="A29:F30"/>
+    <mergeCell ref="A32:F33"/>
+    <mergeCell ref="A35:F36"/>
+    <mergeCell ref="A38:F40"/>
+    <mergeCell ref="A42:F44"/>
+    <mergeCell ref="A5:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="23" t="s">
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="23" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="41"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="23" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="18" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="9" t="s">
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="44"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="23" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="48"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="42"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="44"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="22"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="23" t="s">
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="48"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="50"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="23" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="39"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="41"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="42"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="44"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:D17"/>
     <mergeCell ref="A31:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
@@ -3009,382 +3646,370 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A28:D29"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:D17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.796875" customWidth="1"/>
-    <col min="3" max="3" width="15.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="23" t="s">
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="38" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="38" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="34" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="23" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="9" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="23" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="9"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="9"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="9"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="9"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="23" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" s="9" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="23" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="38" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="34"/>
+      <c r="C39" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="38"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="22"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="22"/>
+      <c r="D39" s="34"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -3401,20 +4026,12 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3425,127 +4042,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35954273-114C-4CB1-A8CF-C18FDC4D8828}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.06640625" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" ht="115.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3559,749 +4176,789 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E058218-B7D2-494A-AB81-A9731849B047}">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" style="19" customWidth="1"/>
-    <col min="2" max="3" width="9.06640625" style="19"/>
-    <col min="4" max="4" width="20.46484375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.06640625" style="19"/>
+    <col min="1" max="1" width="27.125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="11"/>
+    <col min="4" max="4" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="23" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="23" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="23" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="23" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
+      <c r="F30" s="12"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="21"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="23"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="23" t="s">
+      <c r="F37" s="12"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="23" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="23" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="23" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="23" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="23" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="23" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="23" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="23" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="23" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="12"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="23" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="23" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="19"/>
+      <c r="F70" s="20"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="26" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="20"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="29" t="s">
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="16"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="30"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="29" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="31"/>
-      <c r="B80" s="30"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="32" t="s">
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="32" t="s">
+      <c r="B81" s="15"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="26"/>
-      <c r="F81" s="28"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="A75:F77"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A70:F70"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A44:F44"/>
@@ -4313,53 +4970,13 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A78:F78"/>
     <mergeCell ref="B79:C80"/>
     <mergeCell ref="E79:F80"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="A75:F77"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4374,278 +4991,278 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="12"/>
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="135" x14ac:dyDescent="0.4">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="121.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="108" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4663,480 +5280,455 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431FBA6-2BCE-4970-B058-F01658B25BFA}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.06640625" style="19"/>
+    <col min="1" max="1" width="20.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="51" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="51" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="51" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51" t="s">
+      <c r="B11" s="35"/>
+      <c r="C11" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="51" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="51" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="38" t="s">
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="38" t="s">
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="38" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="38" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="13" t="s">
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="9" t="s">
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="9" t="s">
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="9" t="s">
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="9" t="s">
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="9" t="s">
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="9" t="s">
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="23" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="23"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="52" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="53"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="54"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="55"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="57"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="55"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="57"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="60"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B46:E46"/>
+  <mergeCells count="37">
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
@@ -5148,6 +5740,32 @@
     <mergeCell ref="A14:B16"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A25:E28"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5162,81 +5780,81 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5248,7 +5866,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5260,7 +5878,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5272,7 +5890,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5284,7 +5902,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5296,7 +5914,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5308,7 +5926,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5320,7 +5938,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5352,175 +5970,175 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5541,460 +6159,450 @@
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="10" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="34" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="34" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="34" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="34" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="34" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="34" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="34" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="34" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="35" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="35" t="s">
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
-      <c r="E55" s="37"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -6011,6 +6619,16 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A11:E13"/>
     <mergeCell ref="A15:E17"/>
     <mergeCell ref="A19:E22"/>
@@ -6032,151 +6650,151 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.53125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.53125" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16" t="s">
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16" t="s">
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="16" t="s">
+      <c r="P3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="44" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="15" t="s">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="15" t="s">
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="N4" s="15" t="s">
+      <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="44"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6197,7 +6815,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6218,7 +6836,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6239,7 +6857,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6260,7 +6878,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6281,7 +6899,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6302,7 +6920,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6323,7 +6941,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6344,7 +6962,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6367,12 +6985,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="K2:S2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:A4"/>
@@ -6382,6 +6994,12 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K2:S2"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9614B5C6-7CD9-410F-BEDF-C63966C1E66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5508-B751-4C16-AD52-A2F0EEC39551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" firstSheet="1" activeTab="2" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" firstSheet="1" activeTab="8" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -21,12 +21,13 @@
     <sheet name="项目管理计划" sheetId="6" r:id="rId6"/>
     <sheet name="问题日志" sheetId="1" r:id="rId7"/>
     <sheet name="假设和约束日志" sheetId="10" r:id="rId8"/>
-    <sheet name="风险管理计划" sheetId="9" r:id="rId9"/>
-    <sheet name="风险登记册" sheetId="4" r:id="rId10"/>
-    <sheet name="变更日志" sheetId="5" r:id="rId11"/>
-    <sheet name="项目绩效报告" sheetId="13" r:id="rId12"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId13"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId14"/>
+    <sheet name="WBS词典" sheetId="15" r:id="rId9"/>
+    <sheet name="风险管理计划" sheetId="9" r:id="rId10"/>
+    <sheet name="风险登记册" sheetId="4" r:id="rId11"/>
+    <sheet name="变更日志" sheetId="5" r:id="rId12"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId13"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId14"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="328">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2955,77 +2956,6 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>需求文件</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需求跟踪矩阵</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>专家判断</t>
     </r>
     <r>
@@ -3328,6 +3258,155 @@
       </rPr>
       <t>核实的可交付成果</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求跟踪矩阵</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS词典</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作包名称：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS编号：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作描述：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">里程碑：
+1. 
+2. 
+3. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人工</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总成本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量需求：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术信息：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同信息：</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3335,7 +3414,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3416,14 +3495,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -3487,6 +3558,21 @@
       <name val="Segoe UI Symbol"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3669,7 +3755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3706,7 +3792,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3717,15 +3824,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3746,10 +3844,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3853,20 +3951,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4219,19 +4323,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
@@ -4419,6 +4523,497 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6E2AD-FE91-4FE5-A70E-0908CBE835A5}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="44" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="45"/>
+      <c r="C55" s="45"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A56:E58"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A7:E9"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7DDBD-590E-4118-94C7-8F00329466F9}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -4439,76 +5034,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="47" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -4517,26 +5112,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="43" t="s">
+      <c r="S3" s="47" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -4549,9 +5144,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -4564,11 +5159,11 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -4782,7 +5377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D250F-6F3D-4117-BA8B-8316568F9620}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -4801,28 +5396,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -4921,7 +5516,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -4935,488 +5530,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="49" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="52"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -5459,7 +6054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -5474,30 +6069,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -5506,70 +6101,70 @@
       <c r="B4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="16"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="49"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -5578,70 +6173,70 @@
       <c r="B14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="49"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="49"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="51"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
@@ -5650,62 +6245,62 @@
       <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="18"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="15"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="60"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="15"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -5742,7 +6337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -5759,34 +6354,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="13" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
@@ -5795,124 +6390,124 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="25"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="25"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="25"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="25"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="25"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="25"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="25"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="25"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="25"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="25"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
@@ -5959,56 +6554,56 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="15"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="16"/>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="15"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
@@ -6049,40 +6644,40 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="25" t="s">
+      <c r="A39" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="25"/>
+      <c r="D39" s="30"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="18"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="16"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="18"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -6266,8 +6861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41053E2F-150F-490B-A403-84AFB5A2ECC2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6299,80 +6894,80 @@
       <c r="B2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>306</v>
+      <c r="D3" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="76.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="13" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="14" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.5" x14ac:dyDescent="0.4">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="64" t="s">
+      <c r="B6" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="14" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="14" t="s">
         <v>298</v>
       </c>
     </row>
@@ -6399,721 +6994,723 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
       <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="12"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="18"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="12"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="12"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
-      <c r="F63" s="12"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="15"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="12"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="15"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="15"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="12"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="22"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="19" t="s">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="20"/>
-      <c r="B80" s="24"/>
-      <c r="C80" s="24"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="21"/>
-      <c r="C81" s="22"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="22"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:F30"/>
     <mergeCell ref="A79:A80"/>
     <mergeCell ref="D79:D80"/>
     <mergeCell ref="B81:C81"/>
@@ -7121,19 +7718,18 @@
     <mergeCell ref="A78:F78"/>
     <mergeCell ref="B79:C80"/>
     <mergeCell ref="E79:F80"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="E3:F3"/>
@@ -7171,22 +7767,21 @@
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A70:F70"/>
-    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A53:F53"/>
     <mergeCell ref="A6:F10"/>
     <mergeCell ref="A12:F15"/>
     <mergeCell ref="A17:F20"/>
     <mergeCell ref="A22:F24"/>
     <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7213,20 +7808,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="12"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -7490,7 +8085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431FBA6-2BCE-4970-B058-F01658B25BFA}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
@@ -7501,441 +8096,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="25" t="s">
+      <c r="A34" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="16"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="18"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="15"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="29"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="32"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="30"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="32"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="33"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -7954,16 +8549,18 @@
     <mergeCell ref="A30:E33"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A25:E28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C8:E10"/>
     <mergeCell ref="C11:E13"/>
     <mergeCell ref="C14:E16"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="A11:B13"/>
@@ -7972,10 +8569,8 @@
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A21:E23"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B35:E35"/>
     <mergeCell ref="A4:E6"/>
     <mergeCell ref="C17:E19"/>
-    <mergeCell ref="A25:E28"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8003,34 +8598,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -8189,30 +8784,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -8362,490 +8957,491 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6E2AD-FE91-4FE5-A70E-0908CBE835A5}">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CE163-7753-4A5C-BCE5-482A5046E552}">
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="39" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="39" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="39" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="39" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="39" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="39"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="69" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="69" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="69" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="68" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="67"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="67"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="67"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" s="66"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="18">
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
+    <mergeCell ref="A32:J34"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
-    <mergeCell ref="A56:E58"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:E10"/>
+    <mergeCell ref="F7:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239F5508-B751-4C16-AD52-A2F0EEC39551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8181CD-67B3-4224-B03F-EFD4D6B15B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" firstSheet="1" activeTab="8" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" activeTab="7" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -19,15 +19,17 @@
     <sheet name="项目章程" sheetId="8" r:id="rId4"/>
     <sheet name="组织结构对项目的影响" sheetId="2" r:id="rId5"/>
     <sheet name="项目管理计划" sheetId="6" r:id="rId6"/>
-    <sheet name="问题日志" sheetId="1" r:id="rId7"/>
-    <sheet name="假设和约束日志" sheetId="10" r:id="rId8"/>
-    <sheet name="WBS词典" sheetId="15" r:id="rId9"/>
-    <sheet name="风险管理计划" sheetId="9" r:id="rId10"/>
-    <sheet name="风险登记册" sheetId="4" r:id="rId11"/>
-    <sheet name="变更日志" sheetId="5" r:id="rId12"/>
-    <sheet name="项目绩效报告" sheetId="13" r:id="rId13"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId14"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId15"/>
+    <sheet name="风险管理计划" sheetId="9" r:id="rId7"/>
+    <sheet name="需求管理计划" sheetId="17" r:id="rId8"/>
+    <sheet name="问题日志" sheetId="1" r:id="rId9"/>
+    <sheet name="假设和约束日志" sheetId="10" r:id="rId10"/>
+    <sheet name="WBS词典" sheetId="15" r:id="rId11"/>
+    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId12"/>
+    <sheet name="风险登记册" sheetId="4" r:id="rId13"/>
+    <sheet name="变更日志" sheetId="5" r:id="rId14"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId15"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId16"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="345">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3407,6 +3409,74 @@
   </si>
   <si>
     <t>合同信息：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求跟踪矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBS中可交付成果清单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>与目标的关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部需求跟踪矩阵</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求收集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置管理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3755,7 +3825,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3807,24 +3877,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3843,11 +3895,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3876,17 +3940,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3897,14 +3982,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3914,6 +4002,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3951,26 +4042,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4523,490 +4602,188 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6E2AD-FE91-4FE5-A70E-0908CBE835A5}">
-  <dimension ref="A1:E58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C1DC5-3E39-443F-86CB-19AE246BA20D}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="43" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
-      <c r="E41" s="43"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="44" t="s">
-        <v>222</v>
-      </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="42"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="42"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="42"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="44" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="45"/>
-      <c r="C55" s="45"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="42"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="42"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
-    <mergeCell ref="A56:E58"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A4:E5"/>
-    <mergeCell ref="A7:E9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5014,6 +4791,875 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CE163-7753-4A5C-BCE5-482A5046E552}">
+  <dimension ref="A1:J34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>312</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="44" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="46"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
+    <mergeCell ref="A32:J34"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:E10"/>
+    <mergeCell ref="F7:J10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:F11"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EE959-4ECB-4E05-A230-271FFA7ADBE5}">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.9296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="74"/>
+      <c r="M1" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
+      <c r="M2" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="M3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7DDBD-590E-4118-94C7-8F00329466F9}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -5034,76 +5680,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="54" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -5112,26 +5758,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="47" t="s">
+      <c r="O3" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="P3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="47" t="s">
+      <c r="Q3" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="47" t="s">
+      <c r="R3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="47" t="s">
+      <c r="S3" s="54" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -5144,9 +5790,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -5159,11 +5805,11 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -5377,7 +6023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D250F-6F3D-4117-BA8B-8316568F9620}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -5396,28 +6042,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -5516,7 +6162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -5530,178 +6176,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="25" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="25" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="49"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="52"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="16"/>
@@ -5720,214 +6366,214 @@
       <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="20" t="s">
+      <c r="A34" s="25" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="20" t="s">
+      <c r="A37" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="25" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="16"/>
@@ -5954,14 +6600,14 @@
       <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
@@ -5980,14 +6626,14 @@
       <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="20" t="s">
+      <c r="A52" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="16"/>
@@ -6015,12 +6661,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -6037,24 +6688,19 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -6077,22 +6723,22 @@
       <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -6119,52 +6765,52 @@
       <c r="D6" s="16"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="62"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
@@ -6181,62 +6827,62 @@
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="53"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="56"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="65"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="56"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
@@ -6245,72 +6891,76 @@
       <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="19"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="62"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="25" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
@@ -6320,24 +6970,20 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -6354,30 +7000,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="27"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -6390,124 +7036,124 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
@@ -6554,12 +7200,12 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
@@ -6575,35 +7221,35 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
@@ -6644,49 +7290,57 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="25" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="38"/>
+      <c r="C39" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="30"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="19"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="19"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -6703,20 +7357,12 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7007,11 +7653,11 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
@@ -7041,11 +7687,11 @@
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
@@ -7088,14 +7734,14 @@
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="16"/>
@@ -7130,14 +7776,14 @@
       <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="16"/>
@@ -7172,14 +7818,14 @@
       <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="25" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="16"/>
@@ -7206,14 +7852,14 @@
       <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
@@ -7260,52 +7906,52 @@
       <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="19"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="19"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="19"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="19"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="16" t="s">
@@ -7322,14 +7968,14 @@
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
@@ -7348,14 +7994,14 @@
       <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="16"/>
@@ -7374,14 +8020,14 @@
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="16"/>
@@ -7400,14 +8046,14 @@
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="20" t="s">
+      <c r="A47" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="16"/>
@@ -7426,14 +8072,14 @@
       <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="16"/>
@@ -7452,14 +8098,14 @@
       <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
@@ -7486,24 +8132,24 @@
       <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
@@ -7530,14 +8176,14 @@
       <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="16"/>
@@ -7564,14 +8210,14 @@
       <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="20" t="s">
+      <c r="A66" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="16"/>
@@ -7598,14 +8244,14 @@
       <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="20" t="s">
+      <c r="A70" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="16"/>
@@ -7632,14 +8278,14 @@
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="20" t="s">
+      <c r="A74" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="16"/>
@@ -7666,49 +8312,106 @@
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="26"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="20"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="23" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="24"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="20"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="A75:F77"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A79:A80"/>
@@ -7725,63 +8428,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="A75:F77"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8105,24 +8751,24 @@
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
@@ -8146,122 +8792,122 @@
       <c r="E6" s="16"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="39"/>
+      <c r="C14" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
@@ -8285,87 +8931,87 @@
       <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
@@ -8487,63 +9133,69 @@
       <c r="E47" s="16"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="24"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="33"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="31"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="34"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="36"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="34"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E33"/>
@@ -8555,22 +9207,16 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8578,6 +9224,730 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF6E2AD-FE91-4FE5-A70E-0908CBE835A5}">
+  <dimension ref="A1:E58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="52" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="52" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A50" s="49" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
+      <c r="E52" s="53"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
+      <c r="E53" s="53"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="53"/>
+      <c r="E54" s="53"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A55" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="53"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
+      <c r="E57" s="53"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="A56:E58"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A4:E5"/>
+    <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569FECCE-5FA8-4C31-AA84-2C643B71FFC5}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
+    <mergeCell ref="A20:E22"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783C5AB4-7147-4C6E-A805-965524702735}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -8765,685 +10135,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C1DC5-3E39-443F-86CB-19AE246BA20D}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CE163-7753-4A5C-BCE5-482A5046E552}">
-  <dimension ref="A1:J34"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="69" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="69" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="69" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="67" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="67"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="67"/>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="68" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="67"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
-      <c r="J10" s="67"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="65" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="66" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66" t="s">
-        <v>322</v>
-      </c>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J12" s="66"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="65"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="65"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="65"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
-    <mergeCell ref="A32:J34"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A7:E10"/>
-    <mergeCell ref="F7:J10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8181CD-67B3-4224-B03F-EFD4D6B15B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AC92D-93F0-4C72-8E85-353DFB08A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" activeTab="7" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="999" activeTab="9" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="风险管理计划" sheetId="9" r:id="rId7"/>
     <sheet name="需求管理计划" sheetId="17" r:id="rId8"/>
     <sheet name="问题日志" sheetId="1" r:id="rId9"/>
-    <sheet name="假设和约束日志" sheetId="10" r:id="rId10"/>
-    <sheet name="WBS词典" sheetId="15" r:id="rId11"/>
-    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId12"/>
-    <sheet name="风险登记册" sheetId="4" r:id="rId13"/>
-    <sheet name="变更日志" sheetId="5" r:id="rId14"/>
-    <sheet name="项目绩效报告" sheetId="13" r:id="rId15"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId16"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId17"/>
+    <sheet name="项目范围说明书" sheetId="18" r:id="rId10"/>
+    <sheet name="假设和约束日志" sheetId="10" r:id="rId11"/>
+    <sheet name="WBS词典" sheetId="15" r:id="rId12"/>
+    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId13"/>
+    <sheet name="风险登记册" sheetId="4" r:id="rId14"/>
+    <sheet name="变更日志" sheetId="5" r:id="rId15"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId16"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId17"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="352">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3477,6 +3478,34 @@
   </si>
   <si>
     <t>配置管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目范围说明书</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品范围描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目可交付成果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目验收标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目例外事项</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目的假设</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3877,6 +3906,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3895,23 +3942,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3940,23 +3975,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3967,25 +4005,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3993,6 +4031,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4002,9 +4043,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4041,15 +4079,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4391,17 +4420,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>56</v>
       </c>
@@ -4413,7 +4442,7 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>58</v>
@@ -4431,7 +4460,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -4451,7 +4480,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -4465,7 +4494,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -4479,7 +4508,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -4493,7 +4522,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -4509,7 +4538,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -4525,7 +4554,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -4541,7 +4570,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4557,7 +4586,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -4573,7 +4602,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -4602,6 +4631,276 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D516B45-FDEB-46A4-BEBC-0EFA77E789C3}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="A8:F11"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A17:F19"/>
+    <mergeCell ref="A21:F23"/>
+    <mergeCell ref="A25:F27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A24:F24"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C1DC5-3E39-443F-86CB-19AE246BA20D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -4609,15 +4908,15 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>224</v>
       </c>
@@ -4629,21 +4928,21 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
@@ -4669,7 +4968,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4679,7 +4978,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4689,7 +4988,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4699,7 +4998,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4709,7 +5008,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4719,7 +5018,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -4729,7 +5028,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -4739,7 +5038,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4749,7 +5048,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -4759,7 +5058,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -4769,7 +5068,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4790,7 +5089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CE163-7753-4A5C-BCE5-482A5046E552}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -4798,172 +5097,172 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="46"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="49"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="44" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="46"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="49"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="42" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="45" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43" t="s">
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="46"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="1" t="s">
         <v>318</v>
       </c>
@@ -4982,9 +5281,9 @@
       <c r="I12" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4996,7 +5295,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5008,7 +5307,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5020,7 +5319,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5032,7 +5331,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5044,7 +5343,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>325</v>
       </c>
@@ -5058,55 +5357,55 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>200</v>
       </c>
@@ -5120,43 +5419,43 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>326</v>
       </c>
@@ -5170,43 +5469,43 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>327</v>
       </c>
@@ -5220,49 +5519,44 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
     <mergeCell ref="A32:J34"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -5276,13 +5570,18 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EE959-4ECB-4E05-A230-271FFA7ADBE5}">
   <dimension ref="A1:T16"/>
   <sheetViews>
@@ -5290,78 +5589,78 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="4.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="74"/>
-      <c r="M1" s="43" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="M1" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="45"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46"/>
-      <c r="M2" s="42" t="s">
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="49"/>
+      <c r="M2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
       <c r="M3" s="1" t="s">
         <v>225</v>
       </c>
@@ -5387,7 +5686,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -5424,7 +5723,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5443,7 +5742,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5462,7 +5761,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5481,7 +5780,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5500,7 +5799,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5519,7 +5818,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5538,7 +5837,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5557,7 +5856,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5576,7 +5875,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5595,7 +5894,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5614,7 +5913,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5633,7 +5932,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -5645,21 +5944,21 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="M1:T1"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="M1:T1"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7DDBD-590E-4118-94C7-8F00329466F9}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -5667,89 +5966,89 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="54" t="s">
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="57" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -5758,26 +6057,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="54" t="s">
+      <c r="O3" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="54" t="s">
+      <c r="P3" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="54" t="s">
+      <c r="Q3" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="54" t="s">
+      <c r="R3" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="S3" s="57" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -5790,9 +6089,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -5805,13 +6104,13 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5832,7 +6131,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5853,7 +6152,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5874,7 +6173,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5895,7 +6194,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5916,7 +6215,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5937,7 +6236,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5958,7 +6257,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5979,7 +6278,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6023,7 +6322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D250F-6F3D-4117-BA8B-8316568F9620}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -6031,41 +6330,41 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
@@ -6088,7 +6387,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6097,7 +6396,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6106,7 +6405,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6115,7 +6414,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6124,7 +6423,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6133,7 +6432,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6142,7 +6441,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6162,7 +6461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -6170,56 +6469,56 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="25" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="25" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="59" t="s">
         <v>272</v>
       </c>
@@ -6229,7 +6528,7 @@
       <c r="E5" s="59"/>
       <c r="F5" s="59"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="59"/>
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
@@ -6237,7 +6536,7 @@
       <c r="E6" s="59"/>
       <c r="F6" s="59"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
@@ -6245,7 +6544,7 @@
       <c r="E7" s="59"/>
       <c r="F7" s="59"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="59"/>
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
@@ -6253,7 +6552,7 @@
       <c r="E8" s="59"/>
       <c r="F8" s="59"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="59"/>
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
@@ -6261,7 +6560,7 @@
       <c r="E9" s="59"/>
       <c r="F9" s="59"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="59"/>
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
@@ -6269,87 +6568,87 @@
       <c r="E10" s="59"/>
       <c r="F10" s="59"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="59" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="56" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="25" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="27"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -6357,7 +6656,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -6365,217 +6664,217 @@
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="25" t="s">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="25" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="25" t="s">
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="25" t="s">
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="25" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="25" t="s">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="30"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="30"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="30"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="27"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -6583,7 +6882,7 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
       <c r="B47" s="16"/>
       <c r="C47" s="16"/>
@@ -6591,7 +6890,7 @@
       <c r="E47" s="16"/>
       <c r="F47" s="16"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -6599,17 +6898,17 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="25" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="27"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="16"/>
       <c r="B50" s="16"/>
       <c r="C50" s="16"/>
@@ -6617,7 +6916,7 @@
       <c r="E50" s="16"/>
       <c r="F50" s="16"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -6625,17 +6924,17 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="25" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="16"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -6643,7 +6942,7 @@
       <c r="E53" s="16"/>
       <c r="F53" s="16"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -6651,7 +6950,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -6661,17 +6960,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -6688,19 +6982,24 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -6708,13 +7007,13 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>230</v>
       </c>
@@ -6722,25 +7021,25 @@
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>232</v>
       </c>
@@ -6752,67 +7051,67 @@
       </c>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="60"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="65"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="65"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>232</v>
       </c>
@@ -6824,143 +7123,139 @@
       </c>
       <c r="D14" s="16"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" s="17"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="25" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" s="25" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="66"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" s="25" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="65"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="66"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="24"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C25" s="17"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" s="25" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" s="66"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="71"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" s="25" t="s">
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="71"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="72"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="74"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="65"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="66"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
@@ -6970,20 +7265,24 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -6991,41 +7290,41 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.73046875" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.75" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="27"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
@@ -7035,127 +7334,127 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="38"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="38" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="38"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="38" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="38"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="38" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="38" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="38"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="38" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="38" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>225</v>
       </c>
@@ -7169,45 +7468,45 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
@@ -7219,39 +7518,39 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="19"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="19"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="19"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" s="25" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>265</v>
       </c>
@@ -7265,82 +7564,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" s="38" t="s">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="30"/>
+      <c r="C39" s="30" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="38"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="23"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="23"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A42" s="23"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="D39" s="30"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="19"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -7357,12 +7648,20 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7377,15 +7676,15 @@
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -7399,7 +7698,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -7413,7 +7712,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -7427,7 +7726,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="115.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>161</v>
       </c>
@@ -7441,7 +7740,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -7455,7 +7754,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
@@ -7469,7 +7768,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
@@ -7483,7 +7782,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
@@ -7511,15 +7810,15 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.265625" customWidth="1"/>
-    <col min="3" max="3" width="21.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -7533,7 +7832,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="58.9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="61.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>286</v>
       </c>
@@ -7547,7 +7846,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="117" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>287</v>
       </c>
@@ -7561,7 +7860,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="76.900000000000006" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>288</v>
       </c>
@@ -7575,7 +7874,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>289</v>
       </c>
@@ -7589,7 +7888,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="61.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>290</v>
       </c>
@@ -7603,7 +7902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
         <v>291</v>
       </c>
@@ -7631,15 +7930,15 @@
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="9.1328125" style="11"/>
-    <col min="4" max="4" width="20.46484375" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="11"/>
+    <col min="1" max="1" width="27.125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="9.125" style="11"/>
+    <col min="4" max="4" width="20.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>182</v>
       </c>
@@ -7649,17 +7948,17 @@
       <c r="E1" s="16"/>
       <c r="F1" s="16"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2" s="17"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
@@ -7671,7 +7970,7 @@
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
@@ -7683,17 +7982,17 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -7701,7 +8000,7 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
@@ -7709,7 +8008,7 @@
       <c r="E7" s="16"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -7717,7 +8016,7 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
@@ -7725,7 +8024,7 @@
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -7733,17 +8032,17 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -7751,7 +8050,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16"/>
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
@@ -7759,7 +8058,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -7767,7 +8066,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -7775,17 +8074,17 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="27"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -7793,7 +8092,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="16"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -7801,7 +8100,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16"/>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -7809,7 +8108,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -7817,17 +8116,17 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -7835,7 +8134,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -7843,7 +8142,7 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -7851,17 +8150,17 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -7869,7 +8168,7 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -7877,7 +8176,7 @@
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -7885,7 +8184,7 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -7893,7 +8192,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>191</v>
       </c>
@@ -7905,55 +8204,55 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="23"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="23"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="23"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="23"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="23"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="23"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="19"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="19"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="19"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="19"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="19"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="19"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>192</v>
       </c>
@@ -7967,17 +8266,17 @@
       </c>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="25" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
       <c r="B39" s="16"/>
       <c r="C39" s="16"/>
@@ -7985,7 +8284,7 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
       <c r="C40" s="16"/>
@@ -7993,17 +8292,17 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="25" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="16"/>
       <c r="B42" s="16"/>
       <c r="C42" s="16"/>
@@ -8011,7 +8310,7 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="16"/>
       <c r="B43" s="16"/>
       <c r="C43" s="16"/>
@@ -8019,17 +8318,17 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="25" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="27"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
       <c r="B45" s="16"/>
       <c r="C45" s="16"/>
@@ -8037,7 +8336,7 @@
       <c r="E45" s="16"/>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
       <c r="B46" s="16"/>
       <c r="C46" s="16"/>
@@ -8045,17 +8344,17 @@
       <c r="E46" s="16"/>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="25" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="27"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
       <c r="B48" s="16"/>
       <c r="C48" s="16"/>
@@ -8063,7 +8362,7 @@
       <c r="E48" s="16"/>
       <c r="F48" s="16"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16"/>
@@ -8071,17 +8370,17 @@
       <c r="E49" s="16"/>
       <c r="F49" s="16"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="25" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="27"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
@@ -8089,7 +8388,7 @@
       <c r="E51" s="16"/>
       <c r="F51" s="16"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="16"/>
       <c r="B52" s="16"/>
       <c r="C52" s="16"/>
@@ -8097,17 +8396,17 @@
       <c r="E52" s="16"/>
       <c r="F52" s="16"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="25" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="27"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -8115,7 +8414,7 @@
       <c r="E54" s="16"/>
       <c r="F54" s="16"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="16"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -8123,7 +8422,7 @@
       <c r="E55" s="16"/>
       <c r="F55" s="16"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="16"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -8131,27 +8430,27 @@
       <c r="E56" s="16"/>
       <c r="F56" s="16"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="25" t="s">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="27"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="25" t="s">
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="27"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="16"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -8159,7 +8458,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="16"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -8167,7 +8466,7 @@
       <c r="E60" s="16"/>
       <c r="F60" s="16"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="16"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -8175,17 +8474,17 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="25" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="27"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="22"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="16"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -8193,7 +8492,7 @@
       <c r="E63" s="16"/>
       <c r="F63" s="16"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="16"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -8201,7 +8500,7 @@
       <c r="E64" s="16"/>
       <c r="F64" s="16"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="16"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -8209,17 +8508,17 @@
       <c r="E65" s="16"/>
       <c r="F65" s="16"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="25" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="27"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -8227,7 +8526,7 @@
       <c r="E67" s="16"/>
       <c r="F67" s="16"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="16"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -8235,7 +8534,7 @@
       <c r="E68" s="16"/>
       <c r="F68" s="16"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="16"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -8243,17 +8542,17 @@
       <c r="E69" s="16"/>
       <c r="F69" s="16"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="25" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="27"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="22"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="16"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -8261,7 +8560,7 @@
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="16"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -8269,7 +8568,7 @@
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -8277,17 +8576,17 @@
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="25" t="s">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="22"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -8295,7 +8594,7 @@
       <c r="E75" s="16"/>
       <c r="F75" s="16"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="16"/>
       <c r="B76" s="16"/>
       <c r="C76" s="16"/>
@@ -8303,7 +8602,7 @@
       <c r="E76" s="16"/>
       <c r="F76" s="16"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="16"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -8311,64 +8610,93 @@
       <c r="E77" s="16"/>
       <c r="F77" s="16"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="19" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="20"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="17" t="s">
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="17" t="s">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="24"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="19"/>
-      <c r="F81" s="20"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
     <mergeCell ref="A71:F73"/>
     <mergeCell ref="A75:F77"/>
     <mergeCell ref="A74:F74"/>
@@ -8385,49 +8713,20 @@
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A53:F53"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8442,18 +8741,18 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
@@ -8466,7 +8765,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
@@ -8487,7 +8786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -8510,7 +8809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -8533,7 +8832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -8556,7 +8855,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -8579,7 +8878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -8602,7 +8901,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -8625,7 +8924,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -8648,7 +8947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -8671,7 +8970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -8694,7 +8993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -8735,13 +9034,13 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="11"/>
+    <col min="1" max="1" width="20.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>124</v>
       </c>
@@ -8750,270 +9049,270 @@
       <c r="D1" s="16"/>
       <c r="E1" s="16"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="38" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="39" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="39" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="39" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="39" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="38" t="s">
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="38" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="38" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A34" s="38" t="s">
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
@@ -9024,7 +9323,7 @@
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
@@ -9033,7 +9332,7 @@
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
@@ -9042,7 +9341,7 @@
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
@@ -9051,7 +9350,7 @@
       <c r="D38" s="16"/>
       <c r="E38" s="16"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
@@ -9060,7 +9359,7 @@
       <c r="D39" s="16"/>
       <c r="E39" s="16"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
@@ -9069,7 +9368,7 @@
       <c r="D40" s="16"/>
       <c r="E40" s="16"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
@@ -9078,7 +9377,7 @@
       <c r="D41" s="16"/>
       <c r="E41" s="16"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
@@ -9087,7 +9386,7 @@
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
@@ -9096,7 +9395,7 @@
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
@@ -9105,7 +9404,7 @@
       <c r="D44" s="16"/>
       <c r="E44" s="16"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
@@ -9114,7 +9413,7 @@
       <c r="D45" s="16"/>
       <c r="E45" s="16"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
@@ -9123,7 +9422,7 @@
       <c r="D46" s="16"/>
       <c r="E46" s="16"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
@@ -9132,70 +9431,64 @@
       <c r="D47" s="16"/>
       <c r="E47" s="16"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="23"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="25" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="19"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="29" t="s">
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="22"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="35"/>
-      <c r="B53" s="36"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="37"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="34"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="36"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="34"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="36"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E33"/>
@@ -9207,16 +9500,22 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9231,450 +9530,467 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="49" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="52" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="52" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="52" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="52" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="52" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="41" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="53"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="53"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="52" t="s">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A35" s="52" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="52"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A41" s="52" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="52"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A43" s="53"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A45" s="52" t="s">
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47" s="53"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A48" s="53"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A50" s="49" t="s">
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="40"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A51" s="53"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A52" s="53"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A53" s="53"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A54" s="53"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A55" s="49" t="s">
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="44"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A56" s="53"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A57" s="53"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A58" s="53"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="44"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="40"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="40"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -9691,23 +10007,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9718,229 +10017,229 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569FECCE-5FA8-4C31-AA84-2C643B71FFC5}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="42"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="44" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="44" t="s">
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A15" s="44" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="47" t="s">
         <v>343</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="44" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="47" t="s">
         <v>344</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="44" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="45"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:E22"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A8:E10"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A20:E22"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9955,49 +10254,49 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -10029,7 +10328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10041,7 +10340,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10053,7 +10352,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -10065,7 +10364,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -10077,7 +10376,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10089,7 +10388,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -10101,7 +10400,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -10113,7 +10412,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480AC92D-93F0-4C72-8E85-353DFB08A2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BCD0A2-2F47-48E2-9EF1-404D0097A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="999" activeTab="9" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="999" firstSheet="2" activeTab="18" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -20,17 +20,18 @@
     <sheet name="组织结构对项目的影响" sheetId="2" r:id="rId5"/>
     <sheet name="项目管理计划" sheetId="6" r:id="rId6"/>
     <sheet name="风险管理计划" sheetId="9" r:id="rId7"/>
-    <sheet name="需求管理计划" sheetId="17" r:id="rId8"/>
-    <sheet name="问题日志" sheetId="1" r:id="rId9"/>
-    <sheet name="项目范围说明书" sheetId="18" r:id="rId10"/>
-    <sheet name="假设和约束日志" sheetId="10" r:id="rId11"/>
-    <sheet name="WBS词典" sheetId="15" r:id="rId12"/>
-    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId13"/>
-    <sheet name="风险登记册" sheetId="4" r:id="rId14"/>
-    <sheet name="变更日志" sheetId="5" r:id="rId15"/>
-    <sheet name="项目绩效报告" sheetId="13" r:id="rId16"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId17"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId18"/>
+    <sheet name="需求文件" sheetId="19" r:id="rId8"/>
+    <sheet name="需求管理计划" sheetId="17" r:id="rId9"/>
+    <sheet name="问题日志" sheetId="1" r:id="rId10"/>
+    <sheet name="项目范围说明书" sheetId="18" r:id="rId11"/>
+    <sheet name="假设和约束日志" sheetId="10" r:id="rId12"/>
+    <sheet name="WBS词典" sheetId="15" r:id="rId13"/>
+    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId14"/>
+    <sheet name="风险登记册" sheetId="4" r:id="rId15"/>
+    <sheet name="变更日志" sheetId="5" r:id="rId16"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId17"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId18"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="355">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2339,13 +2340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>• 工作绩效信息
-• 变更请求
-• 项目管理计划（更新）
-• 项目文件（更新）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>• 检查
 • 决策</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3046,77 +3040,6 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>范围管理计划</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需求管理计划</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
         <rFont val="Segoe UI Symbol"/>
         <family val="2"/>
       </rPr>
@@ -3506,6 +3429,125 @@
   </si>
   <si>
     <t>项目的假设</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>干系人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验收标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 工作绩效信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• 变更请求
+• 项目管理计划（更新）
+• 项目文件（更新）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>范围管理计划</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需求管理计划</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3513,7 +3555,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3672,6 +3714,39 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3854,7 +3929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3990,6 +4065,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4025,12 +4106,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4079,6 +4154,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4631,10 +4712,200 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783C5AB4-7147-4C6E-A805-965524702735}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D516B45-FDEB-46A4-BEBC-0EFA77E789C3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -4645,7 +4916,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -4655,19 +4926,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="22"/>
       <c r="D2" s="20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E2" s="21"/>
       <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -4701,7 +4972,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -4743,7 +5014,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -4777,7 +5048,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -4811,7 +5082,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -4845,7 +5116,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -4900,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3C1DC5-3E39-443F-86CB-19AE246BA20D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -5089,7 +5360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CE163-7753-4A5C-BCE5-482A5046E552}">
   <dimension ref="A1:J34"/>
   <sheetViews>
@@ -5100,188 +5371,188 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="51"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="49" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="49"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="53" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="s">
+        <v>320</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="46" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="E12" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="F12" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="J12" s="45"/>
+        <v>318</v>
+      </c>
+      <c r="J12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -5345,7 +5616,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5358,52 +5629,52 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
@@ -5420,44 +5691,44 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="46"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5470,44 +5741,44 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="46"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="46"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="48"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5520,43 +5791,47 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="46"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="46"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="46"/>
+      <c r="A34" s="48"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
     <mergeCell ref="A32:J34"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -5571,17 +5846,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EE959-4ECB-4E05-A230-271FFA7ADBE5}">
   <dimension ref="A1:T16"/>
   <sheetViews>
@@ -5598,92 +5869,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-      <c r="M1" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-      <c r="T1" s="45"/>
+      <c r="A1" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="58"/>
+      <c r="M1" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="49"/>
-      <c r="M2" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
+      <c r="A2" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="M2" s="48" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="A3" s="47" t="s">
+        <v>335</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
+        <v>336</v>
+      </c>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
       <c r="M3" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>225</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5691,28 +5962,28 @@
         <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -5958,7 +6229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7DDBD-590E-4118-94C7-8F00329466F9}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -5979,76 +6250,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="58"/>
-      <c r="P2" s="58"/>
-      <c r="Q2" s="58"/>
-      <c r="R2" s="58"/>
-      <c r="S2" s="58"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57" t="s">
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="45" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -6057,26 +6328,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="57" t="s">
+      <c r="O3" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="57" t="s">
+      <c r="P3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="57" t="s">
+      <c r="Q3" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="57" t="s">
+      <c r="R3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="45" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6089,9 +6360,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6104,11 +6375,11 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="45"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -6322,7 +6593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D250F-6F3D-4117-BA8B-8316568F9620}">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -6341,28 +6612,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
@@ -6461,7 +6732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -6999,7 +7270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
@@ -7282,11 +7553,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -7807,7 +8078,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7840,10 +8111,10 @@
         <v>292</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.2">
@@ -7854,10 +8125,10 @@
         <v>293</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.2">
@@ -7868,10 +8139,10 @@
         <v>294</v>
       </c>
       <c r="C4" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>303</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -7882,10 +8153,10 @@
         <v>295</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>301</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
@@ -7893,13 +8164,13 @@
         <v>290</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
@@ -7912,8 +8183,8 @@
       <c r="C7" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>298</v>
+      <c r="D7" s="75" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -10014,6 +10285,120 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852E4303-680E-4B8B-9813-29F9995FB3DC}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569FECCE-5FA8-4C31-AA84-2C643B71FFC5}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -10024,204 +10409,204 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
-        <v>311</v>
-      </c>
-      <c r="E2" s="46"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="48"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="45"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
+      <c r="A23" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="45"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="45"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="45"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -10244,194 +10629,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783C5AB4-7147-4C6E-A805-965524702735}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BCD0A2-2F47-48E2-9EF1-404D0097A620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66641D0E-B2D8-4F1F-845B-344F7AA42128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="999" firstSheet="2" activeTab="18" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="999" firstSheet="5" activeTab="10" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -2345,13 +2345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>• 验收的可交付成果
-• 变更请求
-• 工作绩效信息
-• 项目文件（更新）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>• 专家判断
 • 分解</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2555,7 +2548,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="1"/>
       </rPr>
       <t>•</t>
@@ -2565,7 +2558,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2574,17 +2567,17 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="黑体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>项目范围说明书</t>
+      <t>专家判断</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve">
 </t>
@@ -2594,7 +2587,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="1"/>
       </rPr>
       <t>•</t>
@@ -2604,7 +2597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2613,42 +2606,10 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="黑体"/>
-        <family val="2"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>项目文件（更新）</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专家判断</t>
+      <t>数据收集</t>
     </r>
     <r>
       <rPr>
@@ -2687,7 +2648,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据收集</t>
+      <t>数据分析</t>
     </r>
     <r>
       <rPr>
@@ -2726,7 +2687,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据分析</t>
+      <t>决策</t>
     </r>
     <r>
       <rPr>
@@ -2765,7 +2726,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>决策</t>
+      <t>数据表现</t>
     </r>
     <r>
       <rPr>
@@ -2804,7 +2765,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>数据表现</t>
+      <t>人际关系与团队技能</t>
     </r>
     <r>
       <rPr>
@@ -2843,7 +2804,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>人际关系与团队技能</t>
+      <t>系统交互图</t>
     </r>
     <r>
       <rPr>
@@ -2882,156 +2843,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>系统交互图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>原型法</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>专家判断</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据分析</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>会议</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3547,6 +3359,234 @@
         <charset val="134"/>
       </rPr>
       <t>需求管理计划</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 验收的可交付成果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• 变更请求
+• 工作绩效信息
+• 项目文件（更新）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目范围说明书</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>项目文件（更新）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>专家判断</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据分析</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>会议</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3555,7 +3595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3748,6 +3788,45 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="黑体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3929,7 +4008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3978,26 +4057,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4017,11 +4084,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4050,11 +4129,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4065,6 +4144,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4074,9 +4159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4084,6 +4166,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4107,9 +4192,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4118,6 +4200,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4155,10 +4240,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4501,30 +4583,30 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
@@ -4541,7 +4623,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -4561,7 +4643,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="54" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>69</v>
       </c>
@@ -4575,7 +4657,7 @@
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="82.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>72</v>
       </c>
@@ -4589,7 +4671,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -4603,7 +4685,7 @@
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
@@ -4619,7 +4701,7 @@
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>82</v>
       </c>
@@ -4635,7 +4717,7 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>86</v>
       </c>
@@ -4651,7 +4733,7 @@
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>90</v>
       </c>
@@ -4667,7 +4749,7 @@
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>94</v>
       </c>
@@ -4683,7 +4765,7 @@
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>98</v>
       </c>
@@ -4719,49 +4801,49 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="53" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -4793,7 +4875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -4805,7 +4887,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -4817,7 +4899,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4829,7 +4911,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -4841,7 +4923,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4853,7 +4935,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4865,7 +4947,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4877,7 +4959,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4905,266 +4987,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D516B45-FDEB-46A4-BEBC-0EFA77E789C3}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
+        <v>341</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:F23"/>
+    <mergeCell ref="A25:F27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="A8:F11"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A17:F19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A4:F6"/>
-    <mergeCell ref="A8:F11"/>
-    <mergeCell ref="A13:F15"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="A21:F23"/>
-    <mergeCell ref="A25:F27"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5179,41 +5261,41 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>225</v>
       </c>
@@ -5239,7 +5321,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5249,7 +5331,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5259,7 +5341,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5269,7 +5351,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5279,7 +5361,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5289,7 +5371,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5299,7 +5381,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5309,7 +5391,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5319,7 +5401,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5329,7 +5411,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5339,7 +5421,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5368,193 +5450,193 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="50" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="57" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="54" t="s">
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="D11" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54" t="s">
-        <v>313</v>
-      </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="F12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D11" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="48"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="J12" s="47"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>315</v>
+      </c>
+      <c r="J12" s="49"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5566,7 +5648,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5578,7 +5660,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5590,7 +5672,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5602,7 +5684,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5614,9 +5696,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5628,55 +5710,55 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>200</v>
       </c>
@@ -5690,45 +5772,45 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5740,45 +5822,45 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="48"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="48"/>
-      <c r="J30" s="48"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+      <c r="J29" s="53"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="53"/>
+      <c r="J30" s="53"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5790,54 +5872,44 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="48"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
-      <c r="J32" s="48"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="48"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
-      <c r="J33" s="48"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="48"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+      <c r="J34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
-    <mergeCell ref="A32:J34"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:J6"/>
     <mergeCell ref="A7:E10"/>
     <mergeCell ref="F7:J10"/>
@@ -5846,6 +5918,16 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
+    <mergeCell ref="A32:J34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5860,130 +5942,130 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="5" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="5" width="4.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
-      <c r="M1" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="M2" s="48" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="M1" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+      <c r="M2" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
       <c r="M3" s="1" t="s">
         <v>225</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>225</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -5994,7 +6076,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6013,7 +6095,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6032,7 +6114,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6051,7 +6133,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6070,7 +6152,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6089,7 +6171,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6108,7 +6190,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6127,7 +6209,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6146,7 +6228,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6165,7 +6247,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -6184,7 +6266,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -6203,7 +6285,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
@@ -6237,89 +6319,89 @@
       <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="45"/>
-      <c r="S1" s="45"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="45" t="s">
+      <c r="I3" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="45" t="s">
+      <c r="J3" s="47" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -6328,26 +6410,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="P3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="Q3" s="47" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="R3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="45" t="s">
+      <c r="S3" s="47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6360,9 +6442,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6375,13 +6457,13 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6402,7 +6484,7 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6423,7 +6505,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6444,7 +6526,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6465,7 +6547,7 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6486,7 +6568,7 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6507,7 +6589,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -6528,7 +6610,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -6549,7 +6631,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -6601,41 +6683,41 @@
       <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>119</v>
       </c>
@@ -6658,7 +6740,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -6667,7 +6749,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -6676,7 +6758,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -6685,7 +6767,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -6694,7 +6776,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -6703,7 +6785,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -6712,7 +6794,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -6740,503 +6822,508 @@
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="26"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="20" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="20" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="64" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="59"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="59"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="64"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="64"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="64"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="64"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="40"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="20" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="40"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="20" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="30"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="30"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="20" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="22"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="59" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="64" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="41"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="41"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="30"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="30"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="30"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="30"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="20" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="22"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="22"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="20" t="s">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="22"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7253,17 +7340,12 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7278,255 +7360,259 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="66"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="67"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="70"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="66"/>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="70"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="22"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="63"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="66"/>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="68"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="27" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="27" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="72"/>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="20" t="s">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="71"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="74"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="66"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="68"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="69"/>
+      <c r="D32" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
@@ -7536,17 +7622,13 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7557,47 +7639,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.75" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.73046875" customWidth="1"/>
+    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
@@ -7605,127 +7687,127 @@
         <v>244</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="40" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="40" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="30"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="40" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="30"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="30"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="40" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="30"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="30"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="40" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="30"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="30"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="22"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>225</v>
       </c>
@@ -7739,89 +7821,89 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="20" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="16"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="20" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
         <v>265</v>
       </c>
@@ -7835,74 +7917,82 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="40" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="19"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="19"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="19"/>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -7919,20 +8009,12 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7943,19 +8025,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35954273-114C-4CB1-A8CF-C18FDC4D8828}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="1" max="1" width="23.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -7969,7 +8051,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>159</v>
       </c>
@@ -7983,7 +8065,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="54" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>160</v>
       </c>
@@ -7997,7 +8079,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="115.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="105" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>161</v>
       </c>
@@ -8011,7 +8093,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>162</v>
       </c>
@@ -8025,7 +8107,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="81" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>163</v>
       </c>
@@ -8039,7 +8121,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="81" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>164</v>
       </c>
@@ -8053,7 +8135,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="108" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>165</v>
       </c>
@@ -8081,15 +8163,15 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.265625" customWidth="1"/>
+    <col min="3" max="3" width="21.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>155</v>
       </c>
@@ -8103,21 +8185,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="61.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="58.9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="76" t="s">
+      <c r="C2" s="17" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="120" x14ac:dyDescent="0.2">
+      <c r="D2" s="17" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="117" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>287</v>
       </c>
@@ -8125,13 +8207,13 @@
         <v>293</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="78" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" ht="76.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>288</v>
       </c>
@@ -8139,13 +8221,13 @@
         <v>294</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A5" s="15" t="s">
         <v>289</v>
       </c>
@@ -8153,27 +8235,27 @@
         <v>295</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="63" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" ht="61.5" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
         <v>290</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C6" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="D6" s="16" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="55.5" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
         <v>291</v>
       </c>
@@ -8183,8 +8265,8 @@
       <c r="C7" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D7" s="75" t="s">
-        <v>353</v>
+      <c r="D7" s="16" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -8201,730 +8283,787 @@
       <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="11" customWidth="1"/>
-    <col min="2" max="3" width="9.125" style="11"/>
-    <col min="4" max="4" width="20.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.125" style="11"/>
+    <col min="1" max="1" width="27.1328125" style="11" customWidth="1"/>
+    <col min="2" max="3" width="9.1328125" style="11"/>
+    <col min="4" max="4" width="20.46484375" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="25"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
       <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="20" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="20" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="19"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="19"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="19"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="19"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="19"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="25"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="25"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="18" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="18"/>
+      <c r="E37" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+      <c r="F37" s="18"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="22"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="20" t="s">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="22"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="20" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="22"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="20" t="s">
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="22"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="22"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="22"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="20" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A62" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="20" t="s">
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A66" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="22"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="20" t="s">
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A70" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="21"/>
-      <c r="F70" s="22"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="20" t="s">
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A74" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="22"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="25" t="s">
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A78" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="26"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="23" t="s">
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="23"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="22"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A79" s="19" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="23" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="24"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" s="20"/>
+      <c r="B80" s="24"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="22"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="A75:F77"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A79:A80"/>
@@ -8941,63 +9080,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="A75:F77"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9012,32 +9094,32 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="18"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -9057,7 +9139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -9080,7 +9162,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>26</v>
       </c>
@@ -9103,7 +9185,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="40.5" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>30</v>
       </c>
@@ -9126,7 +9208,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
@@ -9149,7 +9231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>38</v>
       </c>
@@ -9172,7 +9254,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -9195,7 +9277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>46</v>
       </c>
@@ -9218,7 +9300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>49</v>
       </c>
@@ -9241,7 +9323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>52</v>
       </c>
@@ -9264,7 +9346,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -9305,420 +9387,420 @@
       <selection activeCell="A3" sqref="A3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.125" style="11"/>
+    <col min="1" max="1" width="20.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="41"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="30" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="40"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="20" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="25"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="26"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="31" t="s">
         <v>154</v>
       </c>
@@ -9727,21 +9809,21 @@
       <c r="D50" s="32"/>
       <c r="E50" s="33"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="34"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="35"/>
       <c r="E51" s="36"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="34"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="35"/>
       <c r="E52" s="36"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="37"/>
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
@@ -9750,16 +9832,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E33"/>
@@ -9771,22 +9859,16 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9801,33 +9883,33 @@
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="42" t="s">
         <v>212</v>
       </c>
@@ -9836,347 +9918,347 @@
       <c r="D3" s="43"/>
       <c r="E3" s="44"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="40"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="41" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="45" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="40"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="40"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="41" t="s">
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="45" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="41" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41" s="45" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="41"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="40"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45" s="45" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="42" t="s">
         <v>222</v>
       </c>
@@ -10185,35 +10267,35 @@
       <c r="D50" s="43"/>
       <c r="E50" s="44"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="42" t="s">
         <v>223</v>
       </c>
@@ -10222,46 +10304,29 @@
       <c r="D55" s="43"/>
       <c r="E55" s="44"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -10278,6 +10343,23 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10292,95 +10374,95 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="48"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -10406,225 +10488,225 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="48"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
+        <v>306</v>
+      </c>
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="52"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="49"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
     <mergeCell ref="A20:E22"/>
     <mergeCell ref="A24:E26"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A8:E10"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\pm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D404F8-31A3-495A-88AC-AAED3FAC80E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21BFABF-F629-46DB-9B69-0621C2E92757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" firstSheet="2" activeTab="3" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
@@ -3735,7 +3735,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3982,6 +3982,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4163,7 +4171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4221,26 +4229,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4260,11 +4259,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4293,11 +4304,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4308,6 +4319,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4317,9 +4334,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4327,6 +4341,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4350,9 +4367,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4361,6 +4375,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4398,14 +4415,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4758,19 +4769,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="19"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
@@ -4968,222 +4979,222 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="54" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
     <mergeCell ref="A20:E22"/>
     <mergeCell ref="A24:E26"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A8:E10"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5211,34 +5222,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -5394,256 +5405,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="31" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:F23"/>
+    <mergeCell ref="A25:F27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="A8:F11"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A17:F19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A4:F6"/>
-    <mergeCell ref="A8:F11"/>
-    <mergeCell ref="A13:F15"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="A21:F23"/>
-    <mergeCell ref="A25:F27"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5667,30 +5678,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -5850,169 +5861,169 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="54"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="52" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="56"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="57"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="57"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="53" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53" t="s">
         <v>317</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50" t="s">
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="51"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="1" t="s">
         <v>313</v>
       </c>
@@ -6031,7 +6042,7 @@
       <c r="I12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J12" s="50"/>
+      <c r="J12" s="53"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -6108,52 +6119,52 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
@@ -6170,40 +6181,40 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
@@ -6220,40 +6231,40 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -6270,43 +6281,45 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="51"/>
-      <c r="J33" s="51"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="51"/>
-      <c r="J34" s="51"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
     <mergeCell ref="A19:J22"/>
     <mergeCell ref="A24:J26"/>
     <mergeCell ref="A28:J30"/>
@@ -6323,8 +6336,6 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6348,69 +6359,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="M1" s="50" t="s">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="64"/>
+      <c r="M1" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="52" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="M2" s="51" t="s">
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="56"/>
+      <c r="M2" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51" t="s">
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50" t="s">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
       <c r="M3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6729,76 +6740,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I3" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="51" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -6807,26 +6818,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="48" t="s">
+      <c r="O3" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="48" t="s">
+      <c r="P3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="48" t="s">
+      <c r="Q3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="48" t="s">
+      <c r="R3" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="48" t="s">
+      <c r="S3" s="51" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6839,9 +6850,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6854,11 +6865,11 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>
@@ -7091,28 +7102,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
@@ -7225,497 +7236,502 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="25"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="23" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="68" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="62"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="68" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="32"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="67"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="31" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="25"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="25"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="33"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="33"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="32"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="32"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="33"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="23" t="s">
+      <c r="A45" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="25"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="19"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="33"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="25"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="33"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7732,17 +7748,12 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7764,30 +7775,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="44"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
@@ -7796,70 +7807,70 @@
       <c r="B4" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D4" s="19"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="66"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="74"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="66"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="69"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="71"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
@@ -7868,70 +7879,70 @@
       <c r="B14" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="22" t="s">
         <v>233</v>
       </c>
-      <c r="D14" s="19"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="66"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="71"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="73"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="74"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="71"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="33"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
@@ -7940,72 +7951,76 @@
       <c r="B24" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="D24" s="22"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="22"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="25"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="66"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="71"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
@@ -8015,17 +8030,13 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8183,34 +8194,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="23" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="25"/>
+      <c r="D2" s="33"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
@@ -8219,124 +8230,124 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="44" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="44"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="33"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="44" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="33"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="44" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="44" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="44"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="33"/>
+      <c r="B14" s="44"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="33"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="33"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="33"/>
+      <c r="B18" s="44"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
@@ -8383,56 +8394,56 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="22"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="25"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
@@ -8473,49 +8484,57 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="44"/>
+      <c r="C39" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="33"/>
+      <c r="D39" s="44"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="20"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="30"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="20"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="22"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="20"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="22"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -8532,20 +8551,12 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8688,100 +8699,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="19" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="54">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:4" ht="57">
+      <c r="A2" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="20" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="20" t="s">
         <v>374</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="21" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="81">
-      <c r="A3" s="78" t="s">
+    <row r="3" spans="1:4" ht="71.25">
+      <c r="A3" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="20" t="s">
         <v>365</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="81" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="67.5">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:4" ht="71.25">
+      <c r="A4" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="20" t="s">
         <v>372</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="20" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="108">
-      <c r="A5" s="78" t="s">
+    <row r="5" spans="1:4" ht="114">
+      <c r="A5" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="20" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="79" t="s">
+      <c r="D5" s="20" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="135">
-      <c r="A6" s="78" t="s">
+    <row r="6" spans="1:4" ht="128.25">
+      <c r="A6" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="20" t="s">
         <v>367</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="20" t="s">
         <v>370</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="20" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="81">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:4" ht="85.5">
+      <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="20" t="s">
         <v>369</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="20" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8808,721 +8819,778 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="19"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="22"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="19"/>
+      <c r="F37" s="22"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="23" t="s">
+      <c r="A38" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="23" t="s">
+      <c r="A41" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="33"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="25"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="19"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="25"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="19"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="25"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="33"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="25"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="25"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="33"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="23" t="s">
+      <c r="A58" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="33"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="19"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="19"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="33"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="19"/>
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="19"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="19"/>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="25"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="33"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="19"/>
-      <c r="B67" s="19"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="19"/>
-      <c r="B68" s="19"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="19"/>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="25"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="33"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="19"/>
-      <c r="B71" s="19"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="19"/>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="19"/>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="24"/>
-      <c r="D74" s="24"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="25"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="19"/>
-      <c r="B75" s="19"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="19"/>
-      <c r="B76" s="19"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
-      <c r="F76" s="19"/>
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="19"/>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="19"/>
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="29"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="26" t="s">
+      <c r="A79" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="26" t="s">
+      <c r="B79" s="28"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="27"/>
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
+      <c r="A80" s="24"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="28"/>
-      <c r="C81" s="29"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="28"/>
-      <c r="F81" s="29"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="A75:F77"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A79:A80"/>
@@ -9539,63 +9607,6 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="A75:F77"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9622,20 +9633,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -9910,454 +9921,460 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="32" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32" t="s">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
+      <c r="B17" s="45"/>
+      <c r="C17" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="30"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="25"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="33"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="34" t="s">
+      <c r="A50" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="36"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="39"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
+      <c r="A53" s="41"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E33"/>
@@ -10369,22 +10386,16 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10406,227 +10417,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
@@ -10664,13 +10675,13 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
@@ -10708,158 +10719,141 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="44"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
+      <c r="D41" s="49"/>
+      <c r="E41" s="49"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="43"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="49"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="43"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="43"/>
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="50"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="50"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="50"/>
+      <c r="D51" s="50"/>
+      <c r="E51" s="50"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="50"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="46"/>
-      <c r="C55" s="46"/>
-      <c r="D55" s="46"/>
-      <c r="E55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="43"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="43"/>
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="50"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="43"/>
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -10876,6 +10870,23 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10893,24 +10904,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21BFABF-F629-46DB-9B69-0621C2E92757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456E94D-1AA3-44D4-A3D0-B50B66133D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" firstSheet="2" activeTab="3" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" firstSheet="8" activeTab="14" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
@@ -27,12 +27,13 @@
     <sheet name="项目范围说明书" sheetId="18" r:id="rId12"/>
     <sheet name="假设和约束日志" sheetId="10" r:id="rId13"/>
     <sheet name="WBS词典" sheetId="15" r:id="rId14"/>
-    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId15"/>
-    <sheet name="风险登记册" sheetId="4" r:id="rId16"/>
-    <sheet name="变更日志" sheetId="5" r:id="rId17"/>
-    <sheet name="项目绩效报告" sheetId="13" r:id="rId18"/>
-    <sheet name="偏差分析" sheetId="11" r:id="rId19"/>
-    <sheet name="经验教训登记册" sheetId="12" r:id="rId20"/>
+    <sheet name="活动清单" sheetId="21" r:id="rId15"/>
+    <sheet name="需求跟踪矩阵" sheetId="16" r:id="rId16"/>
+    <sheet name="风险登记册" sheetId="4" r:id="rId17"/>
+    <sheet name="变更日志" sheetId="5" r:id="rId18"/>
+    <sheet name="项目绩效报告" sheetId="13" r:id="rId19"/>
+    <sheet name="偏差分析" sheetId="11" r:id="rId20"/>
+    <sheet name="经验教训登记册" sheetId="12" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="387">
   <si>
     <t>问题日志</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -3729,6 +3730,24 @@
 • 变更请求
 • 项目管理计划（更新）
 • 项目文件（更新）</t>
+  </si>
+  <si>
+    <t>活动清单</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>准备日期</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>活动</t>
+  </si>
+  <si>
+    <t>工作描述</t>
   </si>
 </sst>
 </file>
@@ -4238,8 +4257,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -4259,23 +4299,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4304,11 +4332,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4319,12 +4347,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4334,6 +4356,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4341,9 +4366,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4367,6 +4389,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4375,9 +4400,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4414,9 +4436,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4769,19 +4788,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="3" t="s">
         <v>58</v>
       </c>
@@ -4979,222 +4998,222 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="57"/>
+      <c r="E2" s="55"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="53"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="53"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="53"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="56" t="s">
         <v>330</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="56" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="56" t="s">
         <v>326</v>
       </c>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="56"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="58"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:E22"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A8:E10"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A20:E22"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5206,7 +5225,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J2"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5222,34 +5241,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="9" t="s">
@@ -5405,256 +5424,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>341</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="29"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>344</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="A8:F11"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A17:F19"/>
     <mergeCell ref="A21:F23"/>
     <mergeCell ref="A25:F27"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A4:F6"/>
-    <mergeCell ref="A8:F11"/>
-    <mergeCell ref="A13:F15"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:F7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5678,30 +5697,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
@@ -5861,169 +5880,169 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="56"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="58"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="54" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="60"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60" t="s">
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53" t="s">
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53" t="s">
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="57"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="1" t="s">
         <v>313</v>
       </c>
@@ -6042,7 +6061,7 @@
       <c r="I12" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J12" s="53"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="1"/>
@@ -6119,52 +6138,52 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="57"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="57"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
@@ -6181,40 +6200,40 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="57"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="57"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
@@ -6231,40 +6250,40 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="57"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
@@ -6281,48 +6300,43 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="57"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
     <mergeCell ref="A32:J34"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -6336,6 +6350,11 @@
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A19:J22"/>
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6343,6 +6362,99 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6EFD2B-031F-458F-A0A5-DE9CCE6B5383}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="56" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="56" t="s">
+        <v>383</v>
+      </c>
+      <c r="D2" s="58"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="55"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="65"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="65"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="65"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="65"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="65"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58EE959-4ECB-4E05-A230-271FFA7ADBE5}">
   <dimension ref="A1:T16"/>
   <sheetViews>
@@ -6359,69 +6471,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="64"/>
-      <c r="M1" s="53" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="M1" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="56" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="54" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
-      <c r="M2" s="57" t="s">
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="58"/>
+      <c r="M2" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57" t="s">
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53" t="s">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54" t="s">
         <v>333</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
       <c r="M3" s="1" t="s">
         <v>225</v>
       </c>
@@ -6719,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3C7DDBD-590E-4118-94C7-8F00329466F9}">
   <dimension ref="A1:S13"/>
   <sheetViews>
@@ -6740,76 +6852,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="53"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="52" t="s">
         <v>113</v>
       </c>
       <c r="K3" s="9" t="s">
@@ -6818,26 +6930,26 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="52" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6850,9 +6962,9 @@
       <c r="G4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
       <c r="K4" s="9" t="s">
         <v>107</v>
       </c>
@@ -6865,11 +6977,11 @@
       <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1"/>
@@ -7083,12 +7195,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185D250F-6F3D-4117-BA8B-8316568F9620}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7102,28 +7214,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
@@ -7222,7 +7334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73010BD9-8571-4CC9-9CB0-9D1F803F13CA}">
   <dimension ref="A1:F55"/>
   <sheetViews>
@@ -7236,502 +7348,497 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="31" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="27" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="29"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="33"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="29"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="27" t="s">
         <v>275</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="44"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="33"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="33"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="44"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="33"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="66" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="45"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="44"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="27" t="s">
         <v>283</v>
       </c>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="33"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="33"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="29"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="27" t="s">
         <v>285</v>
       </c>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="33"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="29"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7748,295 +7855,17 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
-  <dimension ref="A1:D32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="44"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="22"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="71"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="74"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="69"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="71"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="22"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="31" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="74"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="72"/>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="29" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="72"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-    </row>
-  </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A21:D22"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8178,6 +8007,289 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE57971-3BC9-4A48-8181-96BF14ABBF6C}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="27" t="s">
+        <v>236</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="29"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="72"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="75"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="70"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="72"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="75"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="27" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="26"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="70"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A21:D22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B59A067-2295-4FD2-A674-38765121ADF7}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -8194,34 +8306,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
         <v>243</v>
       </c>
@@ -8230,124 +8342,124 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="B5" s="44"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="B6" s="44"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="37" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="44"/>
+      <c r="B8" s="37"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="37" t="s">
         <v>249</v>
       </c>
-      <c r="B9" s="44"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="B10" s="44"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="44"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="B12" s="44"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="44"/>
+      <c r="B13" s="37"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="37" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="B16" s="44"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="44"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="44" t="s">
+      <c r="A18" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="44"/>
+      <c r="B18" s="37"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="27" t="s">
         <v>259</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
@@ -8394,56 +8506,56 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="30"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
@@ -8484,57 +8596,49 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="44"/>
+      <c r="D39" s="37"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="30"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="30"/>
+      <c r="A42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -8551,12 +8655,20 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8687,7 +8799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE7D18-FC59-4893-B757-40F5313FEEC4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -8736,7 +8848,7 @@
       <c r="C3" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="22" t="s">
         <v>376</v>
       </c>
     </row>
@@ -8819,735 +8931,764 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="30"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="29"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="29"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="29"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="30"/>
+      <c r="A32" s="24"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="26"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="29"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="26"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="29"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="30"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="26"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="29"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="29"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="26"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22" t="s">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="22"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="33"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="33"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="B44" s="32"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="33"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="29"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="33"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="29"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="31" t="s">
+      <c r="A53" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="B53" s="32"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="33"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="29"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="31" t="s">
+      <c r="A57" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="33"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="29"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="31" t="s">
+      <c r="A58" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="33"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="31" t="s">
+      <c r="A62" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="33"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="31" t="s">
+      <c r="A66" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="B66" s="32"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="33"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="29"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="31" t="s">
+      <c r="A70" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="B70" s="32"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="33"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="29"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="32"/>
-      <c r="F74" s="33"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="29"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="22"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="22"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="22"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="25" t="s">
+      <c r="A78" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="26"/>
+      <c r="B78" s="34"/>
+      <c r="C78" s="34"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="23" t="s">
+      <c r="A79" s="30" t="s">
         <v>208</v>
       </c>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="23" t="s">
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="24"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="24"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="33"/>
       <c r="D81" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="26"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="B79:C80"/>
+    <mergeCell ref="E79:F80"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
     <mergeCell ref="A71:F73"/>
     <mergeCell ref="A75:F77"/>
     <mergeCell ref="A74:F74"/>
@@ -9564,49 +9705,20 @@
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A53:F53"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="B79:C80"/>
-    <mergeCell ref="E79:F80"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9633,20 +9745,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -9921,460 +10033,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="45"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="45"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="45"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="45"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="45"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="44"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="29"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="30"/>
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="33"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="37"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="38"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
+      <c r="A51" s="41"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="41"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="42"/>
-      <c r="E53" s="43"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="45"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A30:E33"/>
@@ -10386,16 +10492,22 @@
     <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10417,227 +10529,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="50"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="50"/>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="A8" s="47"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="48" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="A13" s="47"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="A20" s="47"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="50"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
-      <c r="E24" s="50"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="A26" s="47"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="50"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="50"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="48"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
@@ -10675,13 +10787,13 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="48"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
@@ -10719,141 +10831,158 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="50"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
+      <c r="A42" s="47"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="50"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="50"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="50"/>
+      <c r="A43" s="47"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="50"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
-      <c r="D44" s="50"/>
-      <c r="E44" s="50"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="48"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="50"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="50"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="50"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="51"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="50"/>
-      <c r="B51" s="50"/>
-      <c r="C51" s="50"/>
-      <c r="D51" s="50"/>
-      <c r="E51" s="50"/>
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="47"/>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52" s="50"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="50"/>
-      <c r="E52" s="50"/>
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53" s="50"/>
-      <c r="B53" s="50"/>
-      <c r="C53" s="50"/>
-      <c r="D53" s="50"/>
-      <c r="E53" s="50"/>
+      <c r="A53" s="47"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="50"/>
-      <c r="B54" s="50"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="51"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="50"/>
-      <c r="B56" s="50"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
-      <c r="E56" s="50"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
-      <c r="E57" s="50"/>
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="50"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
-      <c r="E58" s="50"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -10870,23 +10999,6 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10904,24 +11016,24 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>306</v>
       </c>
-      <c r="E2" s="52"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">

--- a/项目管理的相关文档.xlsx
+++ b/项目管理的相关文档.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\pm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1456E94D-1AA3-44D4-A3D0-B50B66133D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99729E37-143E-4DAB-821D-7B0FC899AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" firstSheet="8" activeTab="14" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13245" tabRatio="999" activeTab="1" xr2:uid="{FC4DE46E-1547-4638-9BE0-02E9DA410169}"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理五个过程组和十大知识领域" sheetId="3" r:id="rId1"/>
-    <sheet name="项目整合管理过程" sheetId="7" r:id="rId2"/>
-    <sheet name="项目范围管理" sheetId="14" r:id="rId3"/>
-    <sheet name="项目进度管理" sheetId="20" r:id="rId4"/>
-    <sheet name="项目章程" sheetId="8" r:id="rId5"/>
-    <sheet name="组织结构对项目的影响" sheetId="2" r:id="rId6"/>
-    <sheet name="项目管理计划" sheetId="6" r:id="rId7"/>
+    <sheet name="项目管理计划" sheetId="6" r:id="rId2"/>
+    <sheet name="项目整合管理过程" sheetId="7" r:id="rId3"/>
+    <sheet name="项目范围管理" sheetId="14" r:id="rId4"/>
+    <sheet name="项目进度管理" sheetId="20" r:id="rId5"/>
+    <sheet name="项目章程" sheetId="8" r:id="rId6"/>
+    <sheet name="组织结构对项目的影响" sheetId="2" r:id="rId7"/>
     <sheet name="风险管理计划" sheetId="9" r:id="rId8"/>
     <sheet name="需求文件" sheetId="19" r:id="rId9"/>
     <sheet name="需求管理计划" sheetId="17" r:id="rId10"/>
@@ -59,55 +59,55 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="387">
   <si>
     <t>问题日志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目名称：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>准备日期：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>问题编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对目标的影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>紧急程度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>责任方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>措施</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>到期日</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>组织结构类型</t>
@@ -507,269 +507,265 @@
   </si>
   <si>
     <t>风险编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险说明书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>响应</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修订后的概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修订后的影响</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>修订后的等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>行动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险登记册</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变更日志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变更编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变更描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提交</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>提交日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>处理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目生命周期：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>偏差和基准管理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度偏差临界值:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度基准管理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本偏差临界值：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本基准管理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围偏差临界值：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围基准管理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绩效偏差临界值：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>绩效需求管理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目审核：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>针对项目的特别考虑：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制定决策：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子管理计划：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过程改进计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力资源管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采购管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>变更管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>基准：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>附上所有项目基准。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工具与技术</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>输出</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制定项目章程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>制定项目管理计划</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指导与管理项目工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>管理项目知识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>监控项目工作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实施整体变更控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>结束项目或阶段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 立项管理文件
 • 协议
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目章程
 • 其他知识领域规划过程的输出
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目管理计划
@@ -777,7 +773,7 @@
 • 可交付成果
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目管理计划
@@ -786,7 +782,7 @@
 • 协议
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目管理计划
@@ -795,27 +791,27 @@
 • 变更请求
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
 • 数据收集
 • 人际关系与团队技能
 • 会议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
 • 项目管理信息系统
 • 会议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
 • 数据分析
 • 决策
 • 会议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
@@ -823,44 +819,44 @@
 • 数据分析
 • 决策
 • 会议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
 • 数据分析
 • 会议</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目文件（更新）
 • 最终产品、服务或成果
 • 项目最终报告
 • 组织过程资产（更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 批准的变更请求
 • 项目管理计划（更新）
 • 项目文件（更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 经验教训登记册
 • 项目管理计划（更新）
 • 组织过程资产（更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目章程
 • 假设日志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 工作绩效报告
 • 变更请求
 • 项目管理计划（更新）
 • 项目文件（更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目章程
@@ -871,195 +867,195 @@
 • 协议
 • 采购文档
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目章程</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目发起人：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目经理：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目客户：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目目的或理由：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目描述：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>高水平项目和产品需求：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总预算：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>启动风险：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>里程碑总表</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成功标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>批准人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>时间：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>验收标准：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目经理职权层级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人员配备决策：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预算管理和偏差：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技术决策：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>冲突解决：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>超出职权范围的申请途径：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>批准：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目经理签字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目经理姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起人或委托人签字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起人或委托人姓名</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>方法：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工具和技术：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>角色和职责：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险的分类：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>干系人的风险承受能力：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>概率的定义：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>受目标影响的定义：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>概率影响矩阵：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险管理资金：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>应急储备协定书：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>频率和时间：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险审计方法：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>假设和约束日志</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>假设/约束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>评价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1176,47 +1172,47 @@
       </rPr>
       <t xml:space="preserve"> 组织过程资产</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>偏差分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度偏差：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计划的结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>偏差</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根本原因：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计划的响应：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本偏差：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实际结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量偏差：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根本原因:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1407,7 +1403,7 @@
       </rPr>
       <t xml:space="preserve"> 组织过程资产（更新）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1514,127 +1510,127 @@
       </rPr>
       <t xml:space="preserve"> 人际关系与团队技能</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目绩效分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>做的好的方面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>有待改进的方面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求定义和管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>范围定义和管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>进度制定和控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成本估计和控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量规划和控制</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人力资源的可获得性，团队开发和绩效</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>沟通管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>干系人管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采购规划和管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过程改进信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>特殊产品的信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险和问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>风险或问题描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量缺陷</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解决方案</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卖方管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>卖方</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>其他绩效领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>待改进领域</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>经验教训登记册</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目绩效报告</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>发起人：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当前报告阶段的工作完成情况：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.
@@ -1643,64 +1639,64 @@
 4. 
 5.
 6.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当前报告阶段计划的但没有完成的工作情况：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1. 
 2. 
 3. 
 4.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>偏差的根本原因：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对即将完成的里程碑或项目到期日的影响：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计划的纠正或预防措施：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当前报告阶段已花费的资金：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>对整个预算或应急资金的影响：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下一报告阶段计划的工作：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1.
 2.
 3.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>下一报告阶段计划的成本：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>识别的新风险：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>问题：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>说明：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>规划范围管理</t>
@@ -1867,7 +1863,7 @@
       </rPr>
       <t>组织过程资产</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2133,7 +2129,7 @@
       </rPr>
       <t>组织过程资产</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2321,40 +2317,40 @@
       </rPr>
       <t>组织过程资产</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目管理计划
 • 项目文件
 • 事业环境因素
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 项目管理计划
 • 项目文件
 • 工作绩效数据
 • 组织过程资产</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数据分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 检查
 • 决策</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 专家判断
 • 分解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>• 范围基准
 • 项目文件（更新）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2542,7 +2538,7 @@
       </rPr>
       <t>产品分析</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2847,7 +2843,7 @@
       </rPr>
       <t>原型法</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2998,7 +2994,7 @@
       </rPr>
       <t>核实的可交付成果</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3072,190 +3068,190 @@
       </rPr>
       <t>需求跟踪矩阵</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WBS词典</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>准备日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工作包名称：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WBS编号：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工作描述：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>到期日：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">里程碑：
 1. 
 2. 
 3. </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>小时</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>单价</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>人工</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>物资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>总成本</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>质量需求：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技术信息：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同信息：</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求跟踪矩阵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>确认</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>检验</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WBS中可交付成果清单</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>与目标的关系</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>来源</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>关系跟踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>内部需求跟踪矩阵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>技术需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>商业需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求收集</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>跟踪</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>配置管理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目范围说明书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品范围描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目可交付成果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目验收标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目例外事项</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目的约束</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目的假设</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>需求文件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>干系人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>验收标准</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3284,7 +3280,7 @@
 • 项目管理计划（更新）
 • 项目文件（更新）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3362,7 +3358,7 @@
       </rPr>
       <t>需求管理计划</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3391,7 +3387,7 @@
 • 工作绩效信息
 • 项目文件（更新）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3469,7 +3465,7 @@
       </rPr>
       <t>项目文件（更新）</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3590,7 +3586,7 @@
       </rPr>
       <t>会议</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过程</t>
@@ -3707,10 +3703,6 @@
 • 项目管理计划（更新）</t>
   </si>
   <si>
-    <t>• 项目进度网络图
-• 项目文件（更新</t>
-  </si>
-  <si>
     <t>• 持续时间估算
 • 估算依据
 • 项目文件（更新）</t>
@@ -3749,18 +3741,52 @@
   <si>
     <t>工作描述</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>• 项目进度网络图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+• 项目文件（更新</t>
+    </r>
+  </si>
+  <si>
+    <t>人力资源管理计划</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4190,153 +4216,102 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4347,17 +4322,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4368,10 +4391,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4383,59 +4409,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4982,7 +5011,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5007,24 +5036,24 @@
       <c r="E1" s="54"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="55"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="55" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="54"/>
@@ -5048,13 +5077,13 @@
       <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="54"/>
@@ -5078,13 +5107,13 @@
       <c r="E10" s="54"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="A11" s="55" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="54"/>
@@ -5108,13 +5137,13 @@
       <c r="E14" s="54"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="56" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="A15" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="54"/>
@@ -5138,13 +5167,13 @@
       <c r="E18" s="54"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="56" t="s">
-        <v>339</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="54"/>
@@ -5168,13 +5197,13 @@
       <c r="E22" s="54"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="58"/>
+      <c r="A23" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="54"/>
@@ -5199,23 +5228,23 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="A8:E10"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A16:E18"/>
     <mergeCell ref="A20:E22"/>
     <mergeCell ref="A24:E26"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="A8:E10"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A16:E18"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A7:E7"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5404,7 +5433,7 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5424,36 +5453,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="23"/>
@@ -5480,14 +5509,14 @@
       <c r="F6" s="23"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="A7" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="23"/>
@@ -5522,14 +5551,14 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="27" t="s">
-        <v>343</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
+      <c r="A12" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="23"/>
@@ -5556,14 +5585,14 @@
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
-        <v>344</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23"/>
@@ -5590,14 +5619,14 @@
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="27" t="s">
-        <v>345</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
+      <c r="A20" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="23"/>
@@ -5624,14 +5653,14 @@
       <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
+      <c r="A24" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="23"/>
@@ -5659,23 +5688,23 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A21:F23"/>
+    <mergeCell ref="A25:F27"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A4:F6"/>
+    <mergeCell ref="A8:F11"/>
+    <mergeCell ref="A13:F15"/>
+    <mergeCell ref="A17:F19"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A4:F6"/>
-    <mergeCell ref="A8:F11"/>
-    <mergeCell ref="A13:F15"/>
-    <mergeCell ref="A17:F19"/>
-    <mergeCell ref="A21:F23"/>
-    <mergeCell ref="A25:F27"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A24:F24"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5698,7 +5727,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -5709,28 +5738,28 @@
       <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -5739,13 +5768,13 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5864,7 +5893,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5881,7 +5910,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="54" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
@@ -5894,40 +5923,40 @@
       <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="57"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="58"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="56" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -5965,14 +5994,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
       <c r="E7" s="61"/>
       <c r="F7" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
@@ -6016,50 +6045,50 @@
       <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="55" t="s">
-        <v>225</v>
+      <c r="A11" s="58" t="s">
+        <v>224</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
       <c r="G11" s="54" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H11" s="54"/>
       <c r="I11" s="54"/>
       <c r="J11" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="55"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="54"/>
       <c r="C12" s="54"/>
       <c r="D12" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>110</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J12" s="54"/>
     </row>
@@ -6125,7 +6154,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -6138,56 +6167,56 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6200,44 +6229,44 @@
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6250,44 +6279,44 @@
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6300,43 +6329,45 @@
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="58"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A24:J26"/>
+    <mergeCell ref="A28:J30"/>
     <mergeCell ref="A32:J34"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:E2"/>
@@ -6353,10 +6384,8 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="A19:J22"/>
-    <mergeCell ref="A24:J26"/>
-    <mergeCell ref="A28:J30"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6365,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6EFD2B-031F-458F-A0A5-DE9CCE6B5383}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
@@ -6373,82 +6402,82 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="64"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="55" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="56" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" s="58"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="58" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C3" s="55" t="s">
-        <v>386</v>
-      </c>
-      <c r="D3" s="55"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="63"/>
-      <c r="D4" s="65"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="63"/>
-      <c r="D5" s="65"/>
+      <c r="D5" s="64"/>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="63"/>
-      <c r="D6" s="65"/>
+      <c r="D6" s="64"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="65"/>
+      <c r="D7" s="64"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="65"/>
+      <c r="D8" s="64"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="65"/>
+      <c r="D9" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6472,18 +6501,18 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="63" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="65"/>
+        <v>322</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="64"/>
       <c r="M1" s="54" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N1" s="54"/>
       <c r="O1" s="54"/>
@@ -6494,98 +6523,98 @@
       <c r="T1" s="54"/>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="56" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-      <c r="M2" s="55" t="s">
-        <v>324</v>
-      </c>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
+      <c r="A2" s="55" t="s">
+        <v>323</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="M2" s="58" t="s">
+        <v>323</v>
+      </c>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58" t="s">
+        <v>305</v>
+      </c>
+      <c r="R2" s="58"/>
+      <c r="S2" s="58"/>
+      <c r="T2" s="58"/>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="54" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="54" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="M3" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="P3" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="T3" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -6826,7 +6855,7 @@
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7190,7 +7219,7 @@
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7329,7 +7358,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:G2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7348,178 +7377,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="66"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="66"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="66"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="69" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="66" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="66" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="36"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="67" t="s">
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="27" t="s">
-        <v>276</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="23"/>
@@ -7538,214 +7567,214 @@
       <c r="F21" s="23"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="45"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="27" t="s">
-        <v>275</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="27" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+      <c r="F36" s="45"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="27" t="s">
-        <v>277</v>
-      </c>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="37"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="27" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="69" t="s">
         <v>280</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="66" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="46"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="46"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="27" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="45"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="37"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="27" t="s">
-        <v>283</v>
-      </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="29"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="34"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="23"/>
@@ -7772,14 +7801,14 @@
       <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="27" t="s">
-        <v>284</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="29"/>
+      <c r="A49" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="34"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="23"/>
@@ -7798,14 +7827,14 @@
       <c r="F51" s="23"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="27" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="29"/>
+      <c r="A52" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="23"/>
@@ -7833,12 +7862,17 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A20:F21"/>
-    <mergeCell ref="A23:F24"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A46:F48"/>
+    <mergeCell ref="A50:F51"/>
     <mergeCell ref="A53:F55"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:C2"/>
@@ -7855,153 +7889,510 @@
     <mergeCell ref="A42:F44"/>
     <mergeCell ref="A5:F10"/>
     <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A46:F48"/>
-    <mergeCell ref="A50:F51"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A23:F24"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35954273-114C-4CB1-A8CF-C18FDC4D8828}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431FBA6-2BCE-4970-B058-F01658B25BFA}">
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="23.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1328125" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.1328125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="54">
-      <c r="A2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="54">
-      <c r="A3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="4" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="23" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="105">
-      <c r="A4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="67.5">
-      <c r="A5" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="81">
-      <c r="A6" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="81">
-      <c r="A7" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="108">
-      <c r="A8" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>176</v>
-      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="45"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="45"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="45"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="45"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="45"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="30"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="31"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="38"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="39"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="41"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="39"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="41"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="44"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <mergeCells count="37">
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E23"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E6"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C8:E10"/>
+    <mergeCell ref="C11:E13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A8:B10"/>
+    <mergeCell ref="A11:B13"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A25:E28"/>
+    <mergeCell ref="A50:E53"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B46:E46"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8022,39 +8413,39 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="45"/>
+      <c r="C2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="37"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="D4" s="23"/>
     </row>
@@ -8071,12 +8462,12 @@
       <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="70"/>
@@ -8091,12 +8482,12 @@
       <c r="D9" s="75"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="29"/>
+      <c r="A10" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="70"/>
@@ -8111,44 +8502,44 @@
       <c r="D12" s="75"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="27" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="29"/>
+      <c r="A13" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>232</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>233</v>
       </c>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="27" t="s">
-        <v>234</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="29"/>
+      <c r="A17" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="70"/>
@@ -8163,12 +8554,12 @@
       <c r="D19" s="75"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="70"/>
@@ -8183,44 +8574,44 @@
       <c r="D22" s="75"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="27" t="s">
-        <v>238</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>233</v>
-      </c>
-      <c r="D24" s="26"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="26"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="27" t="s">
-        <v>239</v>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="76"/>
@@ -8235,12 +8626,12 @@
       <c r="D29" s="81"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="27" t="s">
-        <v>235</v>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="70"/>
@@ -8256,13 +8647,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A18:D19"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A10:D10"/>
@@ -8272,19 +8667,15 @@
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D9"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A11:D12"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A28:D29"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8306,167 +8697,167 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="31"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="27" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
+      <c r="A3" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="45" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B6" s="37"/>
+      <c r="A6" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="B6" s="45"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="B7" s="37"/>
+      <c r="A7" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="45"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B8" s="37"/>
+      <c r="A8" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B8" s="45"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="37"/>
+      <c r="A9" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="B9" s="45"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="37" t="s">
-        <v>250</v>
-      </c>
-      <c r="B10" s="37"/>
+      <c r="A10" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B10" s="45"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="B11" s="37"/>
+      <c r="A11" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="45"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="37"/>
+      <c r="A12" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="37"/>
+      <c r="A13" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" s="45"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="37"/>
+      <c r="A14" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="B14" s="45"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="B15" s="37"/>
+      <c r="A15" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="B15" s="45"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="B16" s="37"/>
+      <c r="A16" s="45" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="45"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="37" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="37"/>
+      <c r="A17" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="B18" s="37"/>
+      <c r="A18" s="45" t="s">
+        <v>257</v>
+      </c>
+      <c r="B18" s="45"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>112</v>
@@ -8506,19 +8897,19 @@
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="27" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="A26" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="23" t="s">
         <v>262</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="C27" s="23"/>
       <c r="D27" s="3" t="s">
@@ -8527,45 +8918,45 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
@@ -8596,49 +8987,57 @@
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="27" t="s">
-        <v>258</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="29"/>
+      <c r="A38" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45" t="s">
         <v>266</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="37"/>
+      <c r="D39" s="45"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="24"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="26"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="24"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="26"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="31"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="24"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="26"/>
+      <c r="A42" s="30"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="A1:D1"/>
@@ -8655,27 +9054,153 @@
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A38:D38"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35954273-114C-4CB1-A8CF-C18FDC4D8828}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="10" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="54">
+      <c r="A2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="54">
+      <c r="A3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="105">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="67.5">
+      <c r="A5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="81">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="81">
+      <c r="A7" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="108">
+      <c r="A8" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41053E2F-150F-490B-A403-84AFB5A2ECC2}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -8693,114 +9218,114 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58.9">
       <c r="A2" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="117">
       <c r="A3" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="76.900000000000006">
       <c r="A4" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="54">
       <c r="A5" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="62.25">
       <c r="A6" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="54">
       <c r="A7" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>297</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBE7D18-FC59-4893-B757-40F5313FEEC4}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8812,86 +9337,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.25">
       <c r="A1" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="19" t="s">
         <v>357</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="57">
       <c r="A2" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C2" s="20" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>374</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="71.25">
       <c r="A3" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="71.25">
       <c r="A4" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>377</v>
+        <v>371</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="114">
       <c r="A5" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="128.25">
       <c r="A6" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="85.5">
@@ -8899,13 +9424,13 @@
         <v>74</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>369</v>
-      </c>
       <c r="D7" s="20" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8914,7 +9439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E058218-B7D2-494A-AB81-A9731849B047}">
   <dimension ref="A1:F81"/>
   <sheetViews>
@@ -8932,7 +9457,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -8944,15 +9469,15 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -8964,25 +9489,25 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
       <c r="D4" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E4" s="23"/>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+        <v>185</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="23"/>
@@ -9025,14 +9550,14 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
+      <c r="A11" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="23"/>
@@ -9067,14 +9592,14 @@
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="29"/>
+      <c r="A16" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="23"/>
@@ -9109,14 +9634,14 @@
       <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="27" t="s">
-        <v>189</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
+      <c r="A21" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="23"/>
@@ -9143,14 +9668,14 @@
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
+      <c r="A25" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="23"/>
@@ -9186,7 +9711,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="23" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
@@ -9197,76 +9722,76 @@
       <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="26"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="24"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="26"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="26"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="24"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="26"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="26"/>
+      <c r="A36" s="30"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="23" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="23"/>
@@ -9285,14 +9810,14 @@
       <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29"/>
+      <c r="A41" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="23"/>
@@ -9311,14 +9836,14 @@
       <c r="F43" s="23"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="34"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="23"/>
@@ -9337,14 +9862,14 @@
       <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="34"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="23"/>
@@ -9363,14 +9888,14 @@
       <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="29"/>
+      <c r="A50" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="34"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="23"/>
@@ -9389,14 +9914,14 @@
       <c r="F52" s="23"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="29"/>
+      <c r="A53" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="23"/>
@@ -9423,24 +9948,24 @@
       <c r="F56" s="23"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="29"/>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="29"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="23"/>
@@ -9467,14 +9992,14 @@
       <c r="F61" s="23"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="27" t="s">
-        <v>203</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="29"/>
+      <c r="A62" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="23"/>
@@ -9501,14 +10026,14 @@
       <c r="F65" s="23"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="29"/>
+      <c r="A66" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="23"/>
@@ -9535,14 +10060,14 @@
       <c r="F69" s="23"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
+      <c r="A70" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="23"/>
@@ -9569,14 +10094,14 @@
       <c r="F73" s="23"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="27" t="s">
-        <v>206</v>
-      </c>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="29"/>
+      <c r="A74" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="34"/>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="23"/>
@@ -9603,49 +10128,106 @@
       <c r="F77" s="23"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="32" t="s">
+      <c r="A78" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="28"/>
+      <c r="C78" s="28"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="27"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B78" s="34"/>
-      <c r="C78" s="34"/>
-      <c r="D78" s="34"/>
-      <c r="E78" s="34"/>
-      <c r="F78" s="33"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="30" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="31"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B81" s="32"/>
-      <c r="C81" s="33"/>
+        <v>208</v>
+      </c>
+      <c r="B81" s="26"/>
+      <c r="C81" s="27"/>
       <c r="D81" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E81" s="32"/>
-      <c r="F81" s="33"/>
+        <v>210</v>
+      </c>
+      <c r="E81" s="26"/>
+      <c r="F81" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="73">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A6:F10"/>
+    <mergeCell ref="A12:F15"/>
+    <mergeCell ref="A17:F20"/>
+    <mergeCell ref="A22:F24"/>
+    <mergeCell ref="A26:F29"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A71:F73"/>
+    <mergeCell ref="A75:F77"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:D49"/>
+    <mergeCell ref="E48:F49"/>
+    <mergeCell ref="A51:B52"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="E51:F52"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A54:F56"/>
+    <mergeCell ref="A59:F61"/>
+    <mergeCell ref="A63:F65"/>
+    <mergeCell ref="A67:F69"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="A45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="E45:F46"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E39:F40"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="A79:A80"/>
@@ -9662,70 +10244,13 @@
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E39:F40"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="A54:F56"/>
-    <mergeCell ref="A59:F61"/>
-    <mergeCell ref="A63:F65"/>
-    <mergeCell ref="A67:F69"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="A45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="E45:F46"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="A71:F73"/>
-    <mergeCell ref="A75:F77"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:D49"/>
-    <mergeCell ref="E48:F49"/>
-    <mergeCell ref="A51:B52"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="E51:F52"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A6:F10"/>
-    <mergeCell ref="A12:F15"/>
-    <mergeCell ref="A17:F20"/>
-    <mergeCell ref="A22:F24"/>
-    <mergeCell ref="A26:F29"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D636BB6-B437-48DC-BCEE-52DE6659501F}">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -10013,503 +10538,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2431FBA6-2BCE-4970-B058-F01658B25BFA}">
-  <dimension ref="A1:E53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.86328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="36"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="36"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="36"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="23"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="23"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="29"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="41"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="43"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="41"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="42"/>
-      <c r="E52" s="43"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="45"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-    </row>
-  </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="A50:E53"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A25:E28"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C8:E10"/>
-    <mergeCell ref="C11:E13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A8:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E23"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E6"/>
-    <mergeCell ref="C17:E19"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10529,227 +10558,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="A1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="48" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="47"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="48" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="47"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48" t="s">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="48" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="47"/>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="47"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="48" t="s">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="51"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="47"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="47"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="4"/>
@@ -10787,13 +10816,13 @@
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="A35" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="4"/>
@@ -10831,158 +10860,141 @@
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41" s="50"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="47"/>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="47"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="48" t="s">
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="47" t="s">
         <v>221</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="47"/>
-      <c r="B48" s="47"/>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="49" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="47" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="51"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="47"/>
-      <c r="B52" s="47"/>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="47"/>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="47"/>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="49" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="50"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="50"/>
-      <c r="E55" s="51"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="48"/>
+      <c r="E55" s="49"/>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="47"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
+      <c r="A56" s="51"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="47"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="47"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
+      <c r="A58" s="51"/>
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A11:E13"/>
-    <mergeCell ref="A15:E17"/>
-    <mergeCell ref="A19:E22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A42:E44"/>
-    <mergeCell ref="A46:E49"/>
-    <mergeCell ref="A51:E54"/>
     <mergeCell ref="A56:E58"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
@@ -10999,8 +11011,25 @@
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A4:E5"/>
     <mergeCell ref="A7:E9"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A42:E44"/>
+    <mergeCell ref="A46:E49"/>
+    <mergeCell ref="A51:E54"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A11:E13"/>
+    <mergeCell ref="A15:E17"/>
+    <mergeCell ref="A19:E22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A23:E23"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11017,7 +11046,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B1" s="52"/>
       <c r="C1" s="52"/>
@@ -11026,30 +11055,30 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
       <c r="D2" s="53" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11114,7 +11143,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>